--- a/Figure4/6wsignificance.xlsx
+++ b/Figure4/6wsignificance.xlsx
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="C20">
-        <v>0.2155652481566477</v>
+        <v>0.219362114665783</v>
       </c>
       <c r="D20">
-        <v>0.6369432260999098</v>
+        <v>0.6439694357947826</v>
       </c>
     </row>
     <row r="21">
@@ -733,10 +733,10 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.4206177937712147</v>
+        <v>0.4354215620947797</v>
       </c>
       <c r="D21">
-        <v>0.7785792197390798</v>
+        <v>0.6927242098305808</v>
       </c>
     </row>
     <row r="22">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.7964107917146711</v>
+        <v>0.9037533697575735</v>
       </c>
       <c r="D22">
-        <v>0.4262204961221208</v>
+        <v>0.6064840833509557</v>
       </c>
     </row>
     <row r="23">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.7439076792012388</v>
+        <v>0.658753935064414</v>
       </c>
       <c r="D23">
-        <v>0.1772412609187736</v>
+        <v>0.2930846340023091</v>
       </c>
     </row>
     <row r="24">
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="C24">
-        <v>0.02644638935623946</v>
+        <v>0.01702130465232013</v>
       </c>
       <c r="D24">
-        <v>0.1462428083778576</v>
+        <v>0.04658589949574155</v>
       </c>
     </row>
     <row r="25">
@@ -805,10 +805,10 @@
         </is>
       </c>
       <c r="C25">
-        <v>0.5737392266533792</v>
+        <v>0.6163264306481473</v>
       </c>
       <c r="D25">
-        <v>0.1203721957339607</v>
+        <v>0.1219600452061659</v>
       </c>
     </row>
   </sheetData>
